--- a/data/trans_camb/P32A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,7</t>
+          <t>0,37; 4,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,47</t>
+          <t>-0,32; 2,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,62</t>
+          <t>0,3; 3,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,42</t>
+          <t>0,0; 6,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,8</t>
+          <t>0,31; 3,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,89</t>
+          <t>0,21; 2,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,77</t>
+          <t>0,19; 2,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,98</t>
+          <t>0,4; 2,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,71</t>
+          <t>-1,85; 3,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,06</t>
+          <t>-2,26; 2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,9</t>
+          <t>-2,79; 0,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,79</t>
+          <t>0,61; 5,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,84</t>
+          <t>0,74; 4,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,29</t>
+          <t>-0,93; 2,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,7</t>
+          <t>-0,75; 2,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,68</t>
+          <t>-0,9; 1,74</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,27; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,3; —</t>
+          <t>-74,07; 843,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,35; —</t>
+          <t>-67,84; inf</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,08</t>
+          <t>-0,06; 4,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,36</t>
+          <t>-1,01; 3,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,98</t>
+          <t>-1,22; 3,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,06</t>
+          <t>0,0; 9,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,85</t>
+          <t>-0,11; 3,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,98</t>
+          <t>-0,53; 2,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,33</t>
+          <t>-1,0; 2,58</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 823,42</t>
+          <t>-20,55; 1027,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,53; 517,02</t>
+          <t>-60,56; 649,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,72; 564,13</t>
+          <t>-75,48; 526,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 808,49</t>
+          <t>-23,19; 927,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 621,54</t>
+          <t>-41,66; 634,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,82; 422,2</t>
+          <t>-70,31; 667,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,52</t>
+          <t>-0,53; 2,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,86</t>
+          <t>-1,23; 1,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,53</t>
+          <t>-0,63; 2,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,07</t>
+          <t>0,06; 2,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,08</t>
+          <t>-0,41; 1,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,3</t>
+          <t>-0,88; 1,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,66</t>
+          <t>-0,84; 1,71</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 346,96</t>
+          <t>-35,31; 300,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,53; 239,59</t>
+          <t>-61,85; 203,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,01; 291,95</t>
+          <t>-41,35; 293,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 370,06</t>
+          <t>-35,05; 298,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,42; 208,88</t>
+          <t>-59,2; 191,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 255,83</t>
+          <t>-51,98; 250,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,48</t>
+          <t>-0,29; 4,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,29</t>
+          <t>0,19; 5,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,3</t>
+          <t>-0,72; 3,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,02</t>
+          <t>-3,12; 2,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,07</t>
+          <t>-4,29; 0,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,0</t>
+          <t>-2,37; 2,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,83</t>
+          <t>-0,47; 2,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,1</t>
+          <t>-0,57; 3,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,53</t>
+          <t>-0,72; 2,58</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,29; —</t>
+          <t>-52,11; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,77; —</t>
+          <t>-31,81; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,44; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,22 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-85,23; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 612,48</t>
+          <t>-30,23; 873,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 703,55</t>
+          <t>-43,84; 798,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 615,32</t>
+          <t>-52,52; 694,59</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,29</t>
+          <t>0,66; 6,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,12</t>
+          <t>0,59; 5,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,06</t>
+          <t>-0,94; 3,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,61</t>
+          <t>-0,14; 3,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 9,13</t>
+          <t>-0,93; 8,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,22</t>
+          <t>0,18; 3,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,66</t>
+          <t>0,67; 3,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,01</t>
+          <t>-0,57; 4,8</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,31</t>
+          <t>0,55; 2,41</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,71</t>
+          <t>0,08; 1,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,49</t>
+          <t>-0,14; 1,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,39</t>
+          <t>-0,14; 1,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,95</t>
+          <t>0,21; 1,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,93</t>
+          <t>0,1; 1,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,75</t>
+          <t>0,5; 1,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,5</t>
+          <t>0,36; 1,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,35</t>
+          <t>0,08; 1,36</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>39,63; 301,67</t>
+          <t>32,77; 319,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>4,34; 224,17</t>
+          <t>-3,15; 224,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 192,73</t>
+          <t>-12,2; 198,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-48,51; 1161,69</t>
+          <t>-57,89; 1388,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>20,8; 1721,59</t>
+          <t>0,75; 1517,62</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 1449,93</t>
+          <t>-1,59; 1438,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>46,66; 281,09</t>
+          <t>48,05; 297,24</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>27,2; 244,34</t>
+          <t>30,49; 251,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,02; 224,97</t>
+          <t>3,21; 210,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
